--- a/01_Data/IC50_group.xlsx
+++ b/01_Data/IC50_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\RStudio\AML_project\Proteome\01_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A00F8B4-1E7C-46E1-AC20-09D954595418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE60F58-EC4A-44C8-9078-304BD884A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1530" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>MOLM13_2W_2</t>
   </si>
@@ -119,14 +113,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>IC50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t>Cell.line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLM13</t>
+  </si>
+  <si>
+    <t>MOLM13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t>MV4_11</t>
+  </si>
+  <si>
+    <t>MV4_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,311 +485,395 @@
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>525.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>525.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>835.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C4">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>662.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>705.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>606.29999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
         <v>28.47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
-        <v>5464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>93.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>601.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
         <v>2.76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>835.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>6774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>662.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>705.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>606.29999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>5865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>28.47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>28.47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>265.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>55.04</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
-        <v>93.82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>601.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>5282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>4132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
         <v>2.76</v>
       </c>
     </row>

--- a/01_Data/IC50_group.xlsx
+++ b/01_Data/IC50_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\RStudio\AML_project\Proteome\01_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE60F58-EC4A-44C8-9078-304BD884A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3B0930-2A97-4F03-BBCA-815F32613DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,22 +119,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>IC50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell.line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOLM13</t>
   </si>
   <si>
@@ -149,6 +133,22 @@
   </si>
   <si>
     <t>MV4_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell.line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ic50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,16 +487,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -507,7 +507,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>525.1</v>
@@ -521,7 +521,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>34.200000000000003</v>
@@ -535,7 +535,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>3997</v>
@@ -549,7 +549,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>28.47</v>
@@ -563,7 +563,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>5464</v>
@@ -577,7 +577,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>2.76</v>
@@ -591,7 +591,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>835.1</v>
@@ -605,7 +605,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>2745</v>
@@ -619,7 +619,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>6774</v>
@@ -633,7 +633,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>3749</v>
@@ -647,7 +647,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>34.200000000000003</v>
@@ -661,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>34.200000000000003</v>
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>662.5</v>
@@ -689,7 +689,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>705.7</v>
@@ -703,7 +703,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>606.29999999999995</v>
@@ -717,7 +717,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>5865</v>
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>3027</v>
@@ -745,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>28.47</v>
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>28.47</v>
@@ -773,7 +773,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>265.5</v>
@@ -787,7 +787,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>55.04</v>
@@ -801,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>93.82</v>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>601.4</v>
@@ -829,7 +829,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>5282</v>
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>4132</v>
@@ -857,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>2.76</v>
@@ -871,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>2.76</v>
